--- a/requisicoes.xlsx
+++ b/requisicoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsantos\PycharmProjects\automacaoConferenciaVendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD9EC0B-9CA6-474B-A113-7E4A40122E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4AE6C5-60F6-43D1-8ECE-9B2E5B54B644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,15 +42,9 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>BudgeUnidade</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
-    <t>ID_Requisição</t>
-  </si>
-  <si>
     <t>NATAL SHOP 2021/01 RiHappy</t>
   </si>
   <si>
@@ -108,10 +102,16 @@
     <t>BU</t>
   </si>
   <si>
-    <t>CodigoItem</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>Budge_unidade</t>
+  </si>
+  <si>
+    <t>ID_requisicao</t>
+  </si>
+  <si>
+    <t>ID_Item</t>
   </si>
 </sst>
 </file>
@@ -175,11 +175,11 @@
     <tableColumn id="2" xr3:uid="{64BE56C1-643A-4192-AAE5-5319D3F56A0F}" name="Titulo"/>
     <tableColumn id="3" xr3:uid="{876BB7A9-A019-4D3B-AB95-A266FFA48351}" name="Comprador"/>
     <tableColumn id="4" xr3:uid="{D56D0F31-4918-4E45-8E8B-1A54146346DC}" name="CNPJ_Fornecedor"/>
-    <tableColumn id="5" xr3:uid="{5C0EF0EA-E368-40F7-84FF-EADDEDD469F2}" name="CodigoItem"/>
+    <tableColumn id="5" xr3:uid="{5C0EF0EA-E368-40F7-84FF-EADDEDD469F2}" name="ID_Item"/>
     <tableColumn id="6" xr3:uid="{1951DA23-BF06-4665-A9C5-5B84F45BB262}" name="Quantidade"/>
-    <tableColumn id="7" xr3:uid="{87F5FDC3-294C-436B-847A-03BD52099ED6}" name="BudgeUnidade"/>
+    <tableColumn id="7" xr3:uid="{87F5FDC3-294C-436B-847A-03BD52099ED6}" name="Budge_unidade"/>
     <tableColumn id="8" xr3:uid="{E202EAC2-BE49-47E7-88E7-8A2A1A177621}" name="Valor"/>
-    <tableColumn id="9" xr3:uid="{76D3DA90-94E0-43FF-B2C5-4D0CC1E93563}" name="ID_Requisição"/>
+    <tableColumn id="9" xr3:uid="{76D3DA90-94E0-43FF-B2C5-4D0CC1E93563}" name="ID_requisicao"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -473,7 +473,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +490,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -502,19 +502,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -522,13 +522,13 @@
         <v>21234</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2">
         <v>1301010324</v>
@@ -545,13 +545,13 @@
         <v>21218</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2802180406</v>
@@ -571,13 +571,13 @@
         <v>21201</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2802180406</v>
@@ -597,13 +597,13 @@
         <v>21202</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2802180406</v>
@@ -623,13 +623,13 @@
         <v>21204</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>2802180406</v>
@@ -649,13 +649,13 @@
         <v>21205</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>2802180406</v>
@@ -675,13 +675,13 @@
         <v>21206</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>2802180406</v>
@@ -701,13 +701,13 @@
         <v>21208</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>2802180406</v>
@@ -727,13 +727,13 @@
         <v>21210</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>2802180406</v>
@@ -753,13 +753,13 @@
         <v>21211</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>2802180406</v>
@@ -779,13 +779,13 @@
         <v>21212</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>2802180406</v>
@@ -805,13 +805,13 @@
         <v>21217</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>2802180406</v>
@@ -831,13 +831,13 @@
         <v>21220</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>2802180406</v>
@@ -857,13 +857,13 @@
         <v>21222</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>2802180406</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/requisicoes.xlsx
+++ b/requisicoes.xlsx
@@ -5,28 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsantos\PycharmProjects\automacaoConferenciaVendas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Estudos\Python\Aula01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4AE6C5-60F6-43D1-8ECE-9B2E5B54B644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A550E7-1101-4B36-BB55-288CAC2D8128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -36,9 +25,6 @@
     <t>Comprador</t>
   </si>
   <si>
-    <t>CNPJ_Fornecedor</t>
-  </si>
-  <si>
     <t>Quantidade</t>
   </si>
   <si>
@@ -111,7 +97,10 @@
     <t>ID_requisicao</t>
   </si>
   <si>
-    <t>ID_Item</t>
+    <t>CNPJ_fornecedor</t>
+  </si>
+  <si>
+    <t>ID_item</t>
   </si>
 </sst>
 </file>
@@ -174,8 +163,8 @@
     <tableColumn id="1" xr3:uid="{5738A091-E8A3-4BD6-8801-82FC1455435F}" name="BU"/>
     <tableColumn id="2" xr3:uid="{64BE56C1-643A-4192-AAE5-5319D3F56A0F}" name="Titulo"/>
     <tableColumn id="3" xr3:uid="{876BB7A9-A019-4D3B-AB95-A266FFA48351}" name="Comprador"/>
-    <tableColumn id="4" xr3:uid="{D56D0F31-4918-4E45-8E8B-1A54146346DC}" name="CNPJ_Fornecedor"/>
-    <tableColumn id="5" xr3:uid="{5C0EF0EA-E368-40F7-84FF-EADDEDD469F2}" name="ID_Item"/>
+    <tableColumn id="4" xr3:uid="{D56D0F31-4918-4E45-8E8B-1A54146346DC}" name="CNPJ_fornecedor"/>
+    <tableColumn id="5" xr3:uid="{5C0EF0EA-E368-40F7-84FF-EADDEDD469F2}" name="ID_item"/>
     <tableColumn id="6" xr3:uid="{1951DA23-BF06-4665-A9C5-5B84F45BB262}" name="Quantidade"/>
     <tableColumn id="7" xr3:uid="{87F5FDC3-294C-436B-847A-03BD52099ED6}" name="Budge_unidade"/>
     <tableColumn id="8" xr3:uid="{E202EAC2-BE49-47E7-88E7-8A2A1A177621}" name="Valor"/>
@@ -473,7 +462,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,31 +479,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -522,13 +511,13 @@
         <v>21234</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2">
         <v>1301010324</v>
@@ -545,13 +534,13 @@
         <v>21218</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>2802180406</v>
@@ -571,13 +560,13 @@
         <v>21201</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>2802180406</v>
@@ -597,13 +586,13 @@
         <v>21202</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>2802180406</v>
@@ -623,13 +612,13 @@
         <v>21204</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>2802180406</v>
@@ -649,13 +638,13 @@
         <v>21205</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>2802180406</v>
@@ -675,13 +664,13 @@
         <v>21206</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>2802180406</v>
@@ -701,13 +690,13 @@
         <v>21208</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>2802180406</v>
@@ -727,13 +716,13 @@
         <v>21210</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>2802180406</v>
@@ -753,13 +742,13 @@
         <v>21211</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>2802180406</v>
@@ -779,13 +768,13 @@
         <v>21212</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>2802180406</v>
@@ -805,13 +794,13 @@
         <v>21217</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>2802180406</v>
@@ -831,13 +820,13 @@
         <v>21220</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>2802180406</v>
@@ -857,13 +846,13 @@
         <v>21222</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>2802180406</v>
@@ -880,7 +869,7 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/requisicoes.xlsx
+++ b/requisicoes.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Estudos\Python\Aula01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A550E7-1101-4B36-BB55-288CAC2D8128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AFB0E1-3054-4BB0-B2FB-C8C85846D10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="98">
   <si>
     <t>Comprador</t>
   </si>
@@ -31,66 +40,15 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>NATAL SHOP 2021/01 RiHappy</t>
-  </si>
-  <si>
     <t>COMPRADOR_CIF</t>
   </si>
   <si>
-    <t>SP - 58.731.662/0001-11</t>
-  </si>
-  <si>
-    <t>ESTACAO BH 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>SP - 50.613.686/0001-64</t>
-  </si>
-  <si>
-    <t>STA URSULA 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>LAGOON 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>BOULEVAR B 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>LARGO 13 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>SALVADOR N 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>PQ BARUERI 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>I.ALPHAVILLE 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>NORTE SUL P 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>JK 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>BELA VISTA 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>JUNDIAI 2021/09 Masstin</t>
-  </si>
-  <si>
-    <t>PARQUE BELEM 2021/09 Masstin</t>
-  </si>
-  <si>
     <t>Titulo</t>
   </si>
   <si>
     <t>BU</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Budge_unidade</t>
   </si>
   <si>
@@ -101,16 +59,294 @@
   </si>
   <si>
     <t>ID_item</t>
+  </si>
+  <si>
+    <t>N. BAURU 2021/10 TKE SP RIBEIRAO PRETO</t>
+  </si>
+  <si>
+    <t>RIO POTY 2021/10 TKE PI</t>
+  </si>
+  <si>
+    <t>PONTA NEGRA 2021/10 TKE AM</t>
+  </si>
+  <si>
+    <t>NORTE SUL P 2021/10 TKE MS</t>
+  </si>
+  <si>
+    <t>PQMAIA 2021/10 TKE SP GUARULHOS</t>
+  </si>
+  <si>
+    <t>MANAIRA 2021/10 TKE PB</t>
+  </si>
+  <si>
+    <t>SÃO LUIS 2021/10 TKE MA</t>
+  </si>
+  <si>
+    <t>ESTACAO CB 2021/10 TKE MT</t>
+  </si>
+  <si>
+    <t>NATAL SHOP 2021/10 TKE RN</t>
+  </si>
+  <si>
+    <t>I.ALPHAVILLE 2021/10 TKE SP BARUERI</t>
+  </si>
+  <si>
+    <t>JK 2021/10 TKE SP</t>
+  </si>
+  <si>
+    <t>GALLERIA CAMP 2021/10 TKE SP CAMPINAS</t>
+  </si>
+  <si>
+    <t>JUNDIAI 2021/10 TKE SP CAMPINAS</t>
+  </si>
+  <si>
+    <t>GUARARAPES 2021/10 TKE PE</t>
+  </si>
+  <si>
+    <t>JOQUEY P 2021/10 TKE PR</t>
+  </si>
+  <si>
+    <t>BATEL 2021/10 TKE PR</t>
+  </si>
+  <si>
+    <t>SP - 90.347.840/0040-24</t>
+  </si>
+  <si>
+    <t>PI - 90.347.840/0057-72</t>
+  </si>
+  <si>
+    <t>AM - 90.347.840/0016-02</t>
+  </si>
+  <si>
+    <t>MS - 90.347.840/0028-38</t>
+  </si>
+  <si>
+    <t>SP - 90.347.840/0067-44</t>
+  </si>
+  <si>
+    <t>MA - 90.347.840/0048-81</t>
+  </si>
+  <si>
+    <t>MT - 90.347.840/0015-13</t>
+  </si>
+  <si>
+    <t>RN - 90.347.840/0038-00</t>
+  </si>
+  <si>
+    <t>SP - 90.347.840/0042-96</t>
+  </si>
+  <si>
+    <t>SP - 90.347.840/0024-04</t>
+  </si>
+  <si>
+    <t>PE - 90.347.840/0008-94</t>
+  </si>
+  <si>
+    <t>PR - 90.347.840/0005-41</t>
+  </si>
+  <si>
+    <t>STA URSULA 2021/10 TKE SP RIBEIRAO PRETO</t>
+  </si>
+  <si>
+    <t>PB - 90.347.840/0036-48</t>
+  </si>
+  <si>
+    <t>SP - 00.536.772/0021-96</t>
+  </si>
+  <si>
+    <t>RJ - 00.536.772/0013-86</t>
+  </si>
+  <si>
+    <t>STA URSULA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>LARGO 13 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>SALVADOR N 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>S.PELEGRINO 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>PQ BARUERI 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>I.ALPHAVILLE 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>JK 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>BLUMENAU N 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>BELA VISTA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>ESTACAO BH 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>PONTA NEGRA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>JUNDIAI 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>CONTINENTE P 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>CAMPINAS 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>MANAIRA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>GUARARAPES 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>ITAQUERA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>BATEL 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>S.BERNARDO 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>N. BAURU 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>NATAL SHOP 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>I.RIBEIRAO P 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>PARTAGE N 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>NORTH JOQUEI 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>ESPLANADA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>MOXUARA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>I.SJRP 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>PQMAIA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>RIOMAR FOR 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>P.OLINDA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>CERRADO 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>UBERLANDIA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>MANAUS P 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>MILLENIUM 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>PLAZA AVE. 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>3 AMERICAS 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>MARILIA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>MANGABEIRA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>CARAPICUIBA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>RIOMA KENNEDY 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>ITAQUA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>PRACANOVA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>ESTACAO CB 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>GALLERIA CAMP 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>JP POA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>JDORIENTE 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>OURINHOS 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>PAMPLONA 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>TRESLAGOAS 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>RDB 2021/10 Ecolab RJ</t>
+  </si>
+  <si>
+    <t>LAGOON 2021/10 Ecolab RJ</t>
+  </si>
+  <si>
+    <t>SÃO GONCALO 2021/10 Ecolab RJ</t>
+  </si>
+  <si>
+    <t>ARMAZÉM 2021/10 Ecolab SP</t>
+  </si>
+  <si>
+    <t>SP - 90.347.840/0047-09</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>apresentação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,14 +372,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -157,8 +402,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAE50796-0DDA-4C40-9E9C-644913B453FF}" name="Tabela1" displayName="Tabela1" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15" xr:uid="{AAE50796-0DDA-4C40-9E9C-644913B453FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAE50796-0DDA-4C40-9E9C-644913B453FF}" name="Tabela1" displayName="Tabela1" ref="A1:I18" totalsRowShown="0">
+  <autoFilter ref="A1:I18" xr:uid="{AAE50796-0DDA-4C40-9E9C-644913B453FF}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5738A091-E8A3-4BD6-8801-82FC1455435F}" name="BU"/>
     <tableColumn id="2" xr3:uid="{64BE56C1-643A-4192-AAE5-5319D3F56A0F}" name="Titulo"/>
@@ -167,7 +412,7 @@
     <tableColumn id="5" xr3:uid="{5C0EF0EA-E368-40F7-84FF-EADDEDD469F2}" name="ID_item"/>
     <tableColumn id="6" xr3:uid="{1951DA23-BF06-4665-A9C5-5B84F45BB262}" name="Quantidade"/>
     <tableColumn id="7" xr3:uid="{87F5FDC3-294C-436B-847A-03BD52099ED6}" name="Budge_unidade"/>
-    <tableColumn id="8" xr3:uid="{E202EAC2-BE49-47E7-88E7-8A2A1A177621}" name="Valor"/>
+    <tableColumn id="8" xr3:uid="{E202EAC2-BE49-47E7-88E7-8A2A1A177621}" name="Valor" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{76D3DA90-94E0-43FF-B2C5-4D0CC1E93563}" name="ID_requisicao"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -459,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,408 +719,1908 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>21201</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>21234</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>1301010324</v>
-      </c>
-      <c r="G2">
-        <v>2120034</v>
-      </c>
-      <c r="H2">
-        <v>2570.44</v>
+      <c r="E2" s="3">
+        <v>2802180407</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2120001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>491.36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21218</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>2802180406</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2120018</v>
-      </c>
-      <c r="H3">
-        <v>2645.2</v>
+      <c r="A3" s="3">
+        <v>21233</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2802180407</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2120033</v>
+      </c>
+      <c r="H3" s="4">
+        <v>491.36</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>21201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>2802180406</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2120001</v>
-      </c>
-      <c r="H4">
-        <v>2042.4</v>
+      <c r="A4" s="3">
+        <v>21243</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2802180407</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2120043</v>
+      </c>
+      <c r="H4" s="4">
+        <v>245.68</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>21202</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>2802180406</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2120002</v>
-      </c>
-      <c r="H5">
-        <v>2178.4</v>
+      <c r="A5" s="5">
+        <v>21219</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2802180407</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2120019</v>
+      </c>
+      <c r="H5" s="6">
+        <v>982.72</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>21204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>2802180406</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2120004</v>
-      </c>
-      <c r="H6">
-        <v>4240</v>
+      <c r="A6" s="5">
+        <v>21211</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2802180407</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2120011</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1719.76</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>21205</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>2802180406</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2120005</v>
-      </c>
-      <c r="H7">
-        <v>2766.6</v>
+      <c r="A7" s="5">
+        <v>21245</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2802180407</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2120045</v>
+      </c>
+      <c r="H7" s="6">
+        <v>245.68</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21206</v>
+        <v>21226</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E8">
-        <v>2802180406</v>
+        <v>2802180407</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2120006</v>
-      </c>
-      <c r="H8">
-        <v>3640.8</v>
+        <v>2120026</v>
+      </c>
+      <c r="H8" s="2">
+        <v>491.36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21208</v>
+        <v>21224</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>2802180406</v>
+        <v>2802180407</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2120008</v>
-      </c>
-      <c r="H9">
-        <v>2766.6</v>
+        <v>2120024</v>
+      </c>
+      <c r="H9" s="2">
+        <v>737.04</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>21210</v>
+        <v>21263</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>2802180406</v>
+        <v>2802180407</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2120010</v>
-      </c>
-      <c r="H10">
-        <v>2766.6</v>
+        <v>2120063</v>
+      </c>
+      <c r="H10" s="2">
+        <v>245.68</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21211</v>
+        <v>21234</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>2802180406</v>
+        <v>2802180407</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2120011</v>
-      </c>
-      <c r="H11">
-        <v>3242.19</v>
+        <v>2120034</v>
+      </c>
+      <c r="H11" s="2">
+        <v>737.04</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21212</v>
+        <v>21210</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="E12">
-        <v>2802180406</v>
+        <v>2802180407</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2120012</v>
-      </c>
-      <c r="H12">
-        <v>3996.2</v>
+        <v>2120010</v>
+      </c>
+      <c r="H12" s="2">
+        <v>245.68</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21217</v>
+        <v>21212</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>2802180406</v>
+        <v>2802180407</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2120017</v>
-      </c>
-      <c r="H13">
-        <v>4551</v>
+        <v>2120012</v>
+      </c>
+      <c r="H13" s="2">
+        <v>491.36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21220</v>
+        <v>21268</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>2802180406</v>
+        <v>2802180407</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2120020</v>
-      </c>
-      <c r="H14">
-        <v>3318.9</v>
+        <v>2120068</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1844.02</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21222</v>
+        <v>21220</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>2802180406</v>
+        <v>2802180407</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2120022</v>
-      </c>
-      <c r="H15">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>2120020</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2456.8000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>21227</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>2802180407</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2120027</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2948.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21266</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>2802180407</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2120066</v>
+      </c>
+      <c r="H17" s="2">
+        <v>245.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>2802180407</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2120030</v>
+      </c>
+      <c r="H18" s="2">
+        <v>491.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>2802020001</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2120001</v>
+      </c>
+      <c r="H19" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>2802020001</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2120005</v>
+      </c>
+      <c r="H20" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21206</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>2802020001</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2120006</v>
+      </c>
+      <c r="H21" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>2802020001</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2120007</v>
+      </c>
+      <c r="H22" s="2">
+        <v>507.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>2802020001</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2120008</v>
+      </c>
+      <c r="H23" s="2">
+        <v>760.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>2802020001</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2120010</v>
+      </c>
+      <c r="H24" s="2">
+        <v>760.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21212</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>2802020001</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2120012</v>
+      </c>
+      <c r="H25" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21213</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>2802020001</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2120013</v>
+      </c>
+      <c r="H26" s="2">
+        <v>591.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21217</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>2802020001</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2120017</v>
+      </c>
+      <c r="H27" s="2">
+        <v>760.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21218</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>2802020001</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2120018</v>
+      </c>
+      <c r="H28" s="2">
+        <v>507.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21219</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>2802020001</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2120019</v>
+      </c>
+      <c r="H29" s="2">
+        <v>845.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>21220</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>2802020001</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2120020</v>
+      </c>
+      <c r="H30" s="2">
+        <v>591.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>21221</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>2802020001</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2120021</v>
+      </c>
+      <c r="H31" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>21223</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>2802020001</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2120023</v>
+      </c>
+      <c r="H32" s="2">
+        <v>845.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>21226</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>2802020001</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2120026</v>
+      </c>
+      <c r="H33" s="2">
+        <v>929.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>21227</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>2802020001</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2120027</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1014.46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>21228</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>2802020001</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2120028</v>
+      </c>
+      <c r="H35" s="2">
+        <v>915.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>21230</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>2802020001</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2120030</v>
+      </c>
+      <c r="H36" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21232</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>2802020001</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2120032</v>
+      </c>
+      <c r="H37" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>2802020001</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2120033</v>
+      </c>
+      <c r="H38" s="2">
+        <v>507.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>21234</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>2802020001</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2120034</v>
+      </c>
+      <c r="H39" s="2">
+        <v>507.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>21236</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>2802020001</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2120036</v>
+      </c>
+      <c r="H40" s="2">
+        <v>507.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>21237</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>2802020001</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2120037</v>
+      </c>
+      <c r="H41" s="2">
+        <v>507.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>21240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>2802020001</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2120040</v>
+      </c>
+      <c r="H42" s="2">
+        <v>422.69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>21241</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>2802020001</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2120041</v>
+      </c>
+      <c r="H43" s="2">
+        <v>845.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>21242</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>2802020001</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2120042</v>
+      </c>
+      <c r="H44" s="2">
+        <v>425.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>21242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>2802020001</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>2120042</v>
+      </c>
+      <c r="H45" s="2">
+        <v>422.69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>21244</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>2802020001</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2120044</v>
+      </c>
+      <c r="H46" s="2">
+        <v>591.77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>21245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>2802020001</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2120045</v>
+      </c>
+      <c r="H47" s="2">
+        <v>929.92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>21246</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>2802020001</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2120046</v>
+      </c>
+      <c r="H48" s="2">
+        <v>845.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>21247</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>2802020001</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2120047</v>
+      </c>
+      <c r="H49" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>21248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>2802020001</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2120048</v>
+      </c>
+      <c r="H50" s="2">
+        <v>591.77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>21250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>2802020001</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2120050</v>
+      </c>
+      <c r="H51" s="2">
+        <v>845.38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>21251</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>2802020001</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2120051</v>
+      </c>
+      <c r="H52" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>21252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>2802020001</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2120052</v>
+      </c>
+      <c r="H53" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>21253</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>2802020001</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2120053</v>
+      </c>
+      <c r="H54" s="2">
+        <v>591.77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>21254</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55">
+        <v>2802020001</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2120054</v>
+      </c>
+      <c r="H55" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>21255</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>2802020001</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2120055</v>
+      </c>
+      <c r="H56" s="2">
+        <v>422.69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>21256</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>2802020001</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2120056</v>
+      </c>
+      <c r="H57" s="2">
+        <v>422.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>21259</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>2802020001</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2120059</v>
+      </c>
+      <c r="H58" s="2">
+        <v>422.69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>21260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>2802020001</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>2120060</v>
+      </c>
+      <c r="H59" s="2">
+        <v>507.23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>21261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <v>2802020001</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>2120061</v>
+      </c>
+      <c r="H60" s="2">
+        <v>422.69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>21262</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>2802020001</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2120062</v>
+      </c>
+      <c r="H61" s="2">
+        <v>422.69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>21263</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>2802020001</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>2120063</v>
+      </c>
+      <c r="H62" s="2">
+        <v>591.77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>21268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>2802020001</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>2120068</v>
+      </c>
+      <c r="H63" s="2">
+        <v>422.69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>21269</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64">
+        <v>2802020001</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>2120069</v>
+      </c>
+      <c r="H64" s="2">
+        <v>338.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>21274</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>2802020001</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>2120074</v>
+      </c>
+      <c r="H65" s="2">
+        <v>591.77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>21277</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>2802020001</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>2120077</v>
+      </c>
+      <c r="H66" s="2">
+        <v>338.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>21278</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67">
+        <v>2802020001</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>2120078</v>
+      </c>
+      <c r="H67" s="2">
+        <v>367.54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>21286</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68">
+        <v>2802020001</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>2120086</v>
+      </c>
+      <c r="H68" s="2">
+        <v>319.60000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>21272</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69">
+        <v>2802020001</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>2120072</v>
+      </c>
+      <c r="H69" s="2">
+        <v>253.61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>21202</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70">
+        <v>2802020001</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>2120002</v>
+      </c>
+      <c r="H70" s="2">
+        <v>507.23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>21225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71">
+        <v>2802020001</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>2120025</v>
+      </c>
+      <c r="H71" s="2">
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>14012</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72">
+        <v>2802020001</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2111001</v>
+      </c>
+      <c r="H72" s="2">
+        <v>588.78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/requisicoes.xlsx
+++ b/requisicoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Estudos\Python\Aula01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsantos\PycharmProjects\Projetos_Cinepolis\Automações_ERP\automacaoConferenciaVendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AFB0E1-3054-4BB0-B2FB-C8C85846D10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322A89C-51C5-424C-B9BE-C57116174B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="87">
   <si>
     <t>Comprador</t>
   </si>
@@ -61,18 +63,6 @@
     <t>ID_item</t>
   </si>
   <si>
-    <t>N. BAURU 2021/10 TKE SP RIBEIRAO PRETO</t>
-  </si>
-  <si>
-    <t>RIO POTY 2021/10 TKE PI</t>
-  </si>
-  <si>
-    <t>PONTA NEGRA 2021/10 TKE AM</t>
-  </si>
-  <si>
-    <t>NORTE SUL P 2021/10 TKE MS</t>
-  </si>
-  <si>
     <t>PQMAIA 2021/10 TKE SP GUARULHOS</t>
   </si>
   <si>
@@ -109,18 +99,6 @@
     <t>BATEL 2021/10 TKE PR</t>
   </si>
   <si>
-    <t>SP - 90.347.840/0040-24</t>
-  </si>
-  <si>
-    <t>PI - 90.347.840/0057-72</t>
-  </si>
-  <si>
-    <t>AM - 90.347.840/0016-02</t>
-  </si>
-  <si>
-    <t>MS - 90.347.840/0028-38</t>
-  </si>
-  <si>
     <t>SP - 90.347.840/0067-44</t>
   </si>
   <si>
@@ -145,9 +123,6 @@
     <t>PR - 90.347.840/0005-41</t>
   </si>
   <si>
-    <t>STA URSULA 2021/10 TKE SP RIBEIRAO PRETO</t>
-  </si>
-  <si>
     <t>PB - 90.347.840/0036-48</t>
   </si>
   <si>
@@ -317,19 +292,13 @@
   </si>
   <si>
     <t>SP - 90.347.840/0047-09</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>apresentação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,14 +308,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,14 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,8 +361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAE50796-0DDA-4C40-9E9C-644913B453FF}" name="Tabela1" displayName="Tabela1" ref="A1:I18" totalsRowShown="0">
-  <autoFilter ref="A1:I18" xr:uid="{AAE50796-0DDA-4C40-9E9C-644913B453FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAE50796-0DDA-4C40-9E9C-644913B453FF}" name="Tabela1" displayName="Tabela1" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13" xr:uid="{AAE50796-0DDA-4C40-9E9C-644913B453FF}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5738A091-E8A3-4BD6-8801-82FC1455435F}" name="BU"/>
     <tableColumn id="2" xr3:uid="{64BE56C1-643A-4192-AAE5-5319D3F56A0F}" name="Titulo"/>
@@ -704,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,16 +713,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>21201</v>
+        <v>21245</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3">
         <v>2802180407</v>
@@ -772,172 +731,155 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>2120001</v>
+        <v>2120045</v>
       </c>
       <c r="H2" s="4">
+        <v>245.68</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>2802180407</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2120026</v>
+      </c>
+      <c r="H3" s="2">
         <v>491.36</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>21233</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>21224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
         <v>2802180407</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2120033</v>
-      </c>
-      <c r="H3" s="4">
-        <v>491.36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>21243</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2120024</v>
+      </c>
+      <c r="H4" s="2">
+        <v>737.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
         <v>2802180407</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2120043</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2120063</v>
+      </c>
+      <c r="H5" s="2">
         <v>245.68</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>21219</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
         <v>2802180407</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2120019</v>
-      </c>
-      <c r="H5" s="6">
-        <v>982.72</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>21211</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2120034</v>
+      </c>
+      <c r="H6" s="2">
+        <v>737.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7">
         <v>2802180407</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2120011</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1719.76</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>21245</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2802180407</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2120045</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2120010</v>
+      </c>
+      <c r="H7" s="2">
         <v>245.68</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21226</v>
+        <v>21212</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2802180407</v>
@@ -946,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2120026</v>
+        <v>2120012</v>
       </c>
       <c r="H8" s="2">
         <v>491.36</v>
@@ -954,16 +896,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21224</v>
+        <v>21268</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2802180407</v>
@@ -972,24 +914,24 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2120024</v>
+        <v>2120068</v>
       </c>
       <c r="H9" s="2">
-        <v>737.04</v>
+        <v>1844.02</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>21263</v>
+        <v>21220</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>2802180407</v>
@@ -998,24 +940,24 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2120063</v>
+        <v>2120020</v>
       </c>
       <c r="H10" s="2">
-        <v>245.68</v>
+        <v>2456.8000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21234</v>
+        <v>21227</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>2802180407</v>
@@ -1024,24 +966,24 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2120034</v>
+        <v>2120027</v>
       </c>
       <c r="H11" s="2">
-        <v>737.04</v>
+        <v>2948.16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21210</v>
+        <v>21266</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>2802180407</v>
@@ -1050,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2120010</v>
+        <v>2120066</v>
       </c>
       <c r="H12" s="2">
         <v>245.68</v>
@@ -1058,16 +1000,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21212</v>
+        <v>21230</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>2802180407</v>
@@ -1076,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2120012</v>
+        <v>2120030</v>
       </c>
       <c r="H13" s="2">
         <v>491.36</v>
@@ -1084,146 +1026,146 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21268</v>
+        <v>21201</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>2802180407</v>
+        <v>2802020001</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2120068</v>
+        <v>2120001</v>
       </c>
       <c r="H14" s="2">
-        <v>1844.02</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21220</v>
+        <v>21205</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>2802180407</v>
+        <v>2802020001</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2120020</v>
+        <v>2120005</v>
       </c>
       <c r="H15" s="2">
-        <v>2456.8000000000002</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21227</v>
+        <v>21206</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>2802180407</v>
+        <v>2802020001</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2120027</v>
+        <v>2120006</v>
       </c>
       <c r="H16" s="2">
-        <v>2948.16</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21266</v>
+        <v>21207</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>2802180407</v>
+        <v>2802020001</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2120066</v>
+        <v>2120007</v>
       </c>
       <c r="H17" s="2">
-        <v>245.68</v>
+        <v>507.23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21230</v>
+        <v>21208</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>2802180407</v>
+        <v>2802020001</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2120030</v>
+        <v>2120008</v>
       </c>
       <c r="H18" s="2">
-        <v>491.36</v>
+        <v>760.84</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21201</v>
+        <v>21210</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
+      <c r="D19" t="s">
+        <v>31</v>
       </c>
       <c r="E19">
         <v>2802020001</v>
@@ -1232,24 +1174,24 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2120001</v>
+        <v>2120010</v>
       </c>
       <c r="H19" s="2">
-        <v>676.31</v>
+        <v>760.84</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21205</v>
+        <v>21212</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>2802020001</v>
@@ -1258,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2120005</v>
+        <v>2120012</v>
       </c>
       <c r="H20" s="2">
         <v>676.31</v>
@@ -1266,16 +1208,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21206</v>
+        <v>21213</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>2802020001</v>
@@ -1284,24 +1226,24 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2120006</v>
+        <v>2120013</v>
       </c>
       <c r="H21" s="2">
-        <v>676.31</v>
+        <v>591.77</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21207</v>
+        <v>21217</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>2802020001</v>
@@ -1310,24 +1252,24 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2120007</v>
+        <v>2120017</v>
       </c>
       <c r="H22" s="2">
-        <v>507.23</v>
+        <v>760.84</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21208</v>
+        <v>21218</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>2802020001</v>
@@ -1336,24 +1278,24 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2120008</v>
+        <v>2120018</v>
       </c>
       <c r="H23" s="2">
-        <v>760.84</v>
+        <v>507.23</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21210</v>
+        <v>21219</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>2802020001</v>
@@ -1362,24 +1304,24 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2120010</v>
+        <v>2120019</v>
       </c>
       <c r="H24" s="2">
-        <v>760.84</v>
+        <v>845.3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21212</v>
+        <v>21220</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>2802020001</v>
@@ -1388,24 +1330,24 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2120012</v>
+        <v>2120020</v>
       </c>
       <c r="H25" s="2">
-        <v>676.31</v>
+        <v>591.77</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21213</v>
+        <v>21221</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>2802020001</v>
@@ -1414,24 +1356,24 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2120013</v>
+        <v>2120021</v>
       </c>
       <c r="H26" s="2">
-        <v>591.77</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>21217</v>
+        <v>21223</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>2802020001</v>
@@ -1440,24 +1382,24 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2120017</v>
+        <v>2120023</v>
       </c>
       <c r="H27" s="2">
-        <v>760.84</v>
+        <v>845.38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>21218</v>
+        <v>21226</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>2802020001</v>
@@ -1466,24 +1408,24 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2120018</v>
+        <v>2120026</v>
       </c>
       <c r="H28" s="2">
-        <v>507.23</v>
+        <v>929.92</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>21219</v>
+        <v>21227</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>2802020001</v>
@@ -1492,24 +1434,24 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2120019</v>
+        <v>2120027</v>
       </c>
       <c r="H29" s="2">
-        <v>845.3</v>
+        <v>1014.46</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>21220</v>
+        <v>21228</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>2802020001</v>
@@ -1518,24 +1460,24 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2120020</v>
+        <v>2120028</v>
       </c>
       <c r="H30" s="2">
-        <v>591.77</v>
+        <v>915.51</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>21221</v>
+        <v>21230</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>2802020001</v>
@@ -1544,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2120021</v>
+        <v>2120030</v>
       </c>
       <c r="H31" s="2">
         <v>676.31</v>
@@ -1552,16 +1494,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>21223</v>
+        <v>21232</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>2802020001</v>
@@ -1570,24 +1512,24 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2120023</v>
+        <v>2120032</v>
       </c>
       <c r="H32" s="2">
-        <v>845.38</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>21226</v>
+        <v>21233</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>2802020001</v>
@@ -1596,24 +1538,24 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2120026</v>
+        <v>2120033</v>
       </c>
       <c r="H33" s="2">
-        <v>929.92</v>
+        <v>507.23</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>21227</v>
+        <v>21234</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>2802020001</v>
@@ -1622,24 +1564,24 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2120027</v>
+        <v>2120034</v>
       </c>
       <c r="H34" s="2">
-        <v>1014.46</v>
+        <v>507.23</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21228</v>
+        <v>21236</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>2802020001</v>
@@ -1648,24 +1590,24 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2120028</v>
+        <v>2120036</v>
       </c>
       <c r="H35" s="2">
-        <v>915.51</v>
+        <v>507.23</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>21230</v>
+        <v>21237</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>2802020001</v>
@@ -1674,24 +1616,24 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2120030</v>
+        <v>2120037</v>
       </c>
       <c r="H36" s="2">
-        <v>676.31</v>
+        <v>507.23</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>21232</v>
+        <v>21240</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>2802020001</v>
@@ -1700,24 +1642,24 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2120032</v>
+        <v>2120040</v>
       </c>
       <c r="H37" s="2">
-        <v>676.31</v>
+        <v>422.69</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>21233</v>
+        <v>21241</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>2802020001</v>
@@ -1726,24 +1668,24 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>2120033</v>
+        <v>2120041</v>
       </c>
       <c r="H38" s="2">
-        <v>507.23</v>
+        <v>845.38</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>21234</v>
+        <v>21242</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>2802020001</v>
@@ -1752,24 +1694,24 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>2120034</v>
+        <v>2120042</v>
       </c>
       <c r="H39" s="2">
-        <v>507.23</v>
+        <v>425.35</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>21236</v>
+        <v>21242</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>2802020001</v>
@@ -1778,24 +1720,24 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>2120036</v>
+        <v>2120042</v>
       </c>
       <c r="H40" s="2">
-        <v>507.23</v>
+        <v>422.69</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>21237</v>
+        <v>21244</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <v>2802020001</v>
@@ -1804,24 +1746,24 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>2120037</v>
+        <v>2120044</v>
       </c>
       <c r="H41" s="2">
-        <v>507.23</v>
+        <v>591.77</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>21240</v>
+        <v>21245</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>2802020001</v>
@@ -1830,24 +1772,24 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>2120040</v>
+        <v>2120045</v>
       </c>
       <c r="H42" s="2">
-        <v>422.69</v>
+        <v>929.92</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>21241</v>
+        <v>21246</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>2802020001</v>
@@ -1856,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>2120041</v>
+        <v>2120046</v>
       </c>
       <c r="H43" s="2">
         <v>845.38</v>
@@ -1864,16 +1806,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>21242</v>
+        <v>21247</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <v>2802020001</v>
@@ -1882,24 +1824,24 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>2120042</v>
+        <v>2120047</v>
       </c>
       <c r="H44" s="2">
-        <v>425.35</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>21242</v>
+        <v>21248</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>2802020001</v>
@@ -1908,24 +1850,24 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>2120042</v>
+        <v>2120048</v>
       </c>
       <c r="H45" s="2">
-        <v>422.69</v>
+        <v>591.77</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>21244</v>
+        <v>21250</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E46">
         <v>2802020001</v>
@@ -1934,24 +1876,24 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>2120044</v>
+        <v>2120050</v>
       </c>
       <c r="H46" s="2">
-        <v>591.77</v>
+        <v>845.38</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>21245</v>
+        <v>21251</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E47">
         <v>2802020001</v>
@@ -1960,24 +1902,24 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>2120045</v>
+        <v>2120051</v>
       </c>
       <c r="H47" s="2">
-        <v>929.92</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>21246</v>
+        <v>21252</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E48">
         <v>2802020001</v>
@@ -1986,24 +1928,24 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>2120046</v>
+        <v>2120052</v>
       </c>
       <c r="H48" s="2">
-        <v>845.38</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>21247</v>
+        <v>21253</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E49">
         <v>2802020001</v>
@@ -2012,24 +1954,24 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>2120047</v>
+        <v>2120053</v>
       </c>
       <c r="H49" s="2">
-        <v>676.31</v>
+        <v>591.77</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>21248</v>
+        <v>21254</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E50">
         <v>2802020001</v>
@@ -2038,24 +1980,24 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>2120048</v>
+        <v>2120054</v>
       </c>
       <c r="H50" s="2">
-        <v>591.77</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>21250</v>
+        <v>21255</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E51">
         <v>2802020001</v>
@@ -2064,24 +2006,24 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>2120050</v>
+        <v>2120055</v>
       </c>
       <c r="H51" s="2">
-        <v>845.38</v>
+        <v>422.69</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>21251</v>
+        <v>21256</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E52">
         <v>2802020001</v>
@@ -2090,24 +2032,24 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>2120051</v>
+        <v>2120056</v>
       </c>
       <c r="H52" s="2">
-        <v>676.31</v>
+        <v>422.69</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>21252</v>
+        <v>21259</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E53">
         <v>2802020001</v>
@@ -2116,24 +2058,24 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>2120052</v>
+        <v>2120059</v>
       </c>
       <c r="H53" s="2">
-        <v>676.31</v>
+        <v>422.69</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>21253</v>
+        <v>21260</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E54">
         <v>2802020001</v>
@@ -2142,24 +2084,24 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>2120053</v>
+        <v>2120060</v>
       </c>
       <c r="H54" s="2">
-        <v>591.77</v>
+        <v>507.23</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>21254</v>
+        <v>21261</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E55">
         <v>2802020001</v>
@@ -2168,24 +2110,24 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>2120054</v>
+        <v>2120061</v>
       </c>
       <c r="H55" s="2">
-        <v>676.31</v>
+        <v>422.69</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>21255</v>
+        <v>21262</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E56">
         <v>2802020001</v>
@@ -2194,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>2120055</v>
+        <v>2120062</v>
       </c>
       <c r="H56" s="2">
         <v>422.69</v>
@@ -2202,16 +2144,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>21256</v>
+        <v>21263</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E57">
         <v>2802020001</v>
@@ -2220,24 +2162,24 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>2120056</v>
+        <v>2120063</v>
       </c>
       <c r="H57" s="2">
-        <v>422.69</v>
+        <v>591.77</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>21259</v>
+        <v>21268</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E58">
         <v>2802020001</v>
@@ -2246,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>2120059</v>
+        <v>2120068</v>
       </c>
       <c r="H58" s="2">
         <v>422.69</v>
@@ -2254,16 +2196,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>21260</v>
+        <v>21269</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E59">
         <v>2802020001</v>
@@ -2272,24 +2214,24 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>2120060</v>
+        <v>2120069</v>
       </c>
       <c r="H59" s="2">
-        <v>507.23</v>
+        <v>338.15</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>21261</v>
+        <v>21274</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E60">
         <v>2802020001</v>
@@ -2298,24 +2240,24 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>2120061</v>
+        <v>2120074</v>
       </c>
       <c r="H60" s="2">
-        <v>422.69</v>
+        <v>591.77</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>21262</v>
+        <v>21277</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E61">
         <v>2802020001</v>
@@ -2324,24 +2266,24 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>2120062</v>
+        <v>2120077</v>
       </c>
       <c r="H61" s="2">
-        <v>422.69</v>
+        <v>338.15</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>21263</v>
+        <v>21278</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E62">
         <v>2802020001</v>
@@ -2350,24 +2292,24 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>2120063</v>
+        <v>2120078</v>
       </c>
       <c r="H62" s="2">
-        <v>591.77</v>
+        <v>367.54</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>21268</v>
+        <v>21286</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E63">
         <v>2802020001</v>
@@ -2376,24 +2318,24 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>2120068</v>
+        <v>2120086</v>
       </c>
       <c r="H63" s="2">
-        <v>422.69</v>
+        <v>319.60000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>21269</v>
+        <v>21272</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E64">
         <v>2802020001</v>
@@ -2402,24 +2344,24 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>2120069</v>
+        <v>2120072</v>
       </c>
       <c r="H64" s="2">
-        <v>338.15</v>
+        <v>253.61</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>21274</v>
+        <v>21202</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E65">
         <v>2802020001</v>
@@ -2428,24 +2370,24 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>2120074</v>
+        <v>2120002</v>
       </c>
       <c r="H65" s="2">
-        <v>591.77</v>
+        <v>507.23</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>21277</v>
+        <v>21225</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E66">
         <v>2802020001</v>
@@ -2454,24 +2396,24 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>2120077</v>
+        <v>2120025</v>
       </c>
       <c r="H66" s="2">
-        <v>338.15</v>
+        <v>676.31</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>21278</v>
+        <v>14012</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E67">
         <v>2802020001</v>
@@ -2480,139 +2422,9 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>2120078</v>
+        <v>2111001</v>
       </c>
       <c r="H67" s="2">
-        <v>367.54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>21286</v>
-      </c>
-      <c r="B68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68">
-        <v>2802020001</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>2120086</v>
-      </c>
-      <c r="H68" s="2">
-        <v>319.60000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>21272</v>
-      </c>
-      <c r="B69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69">
-        <v>2802020001</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>2120072</v>
-      </c>
-      <c r="H69" s="2">
-        <v>253.61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>21202</v>
-      </c>
-      <c r="B70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70">
-        <v>2802020001</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>2120002</v>
-      </c>
-      <c r="H70" s="2">
-        <v>507.23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>21225</v>
-      </c>
-      <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71">
-        <v>2802020001</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>2120025</v>
-      </c>
-      <c r="H71" s="2">
-        <v>676.31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>14012</v>
-      </c>
-      <c r="B72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" t="s">
-        <v>40</v>
-      </c>
-      <c r="E72">
-        <v>2802020001</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>2111001</v>
-      </c>
-      <c r="H72" s="2">
         <v>588.78</v>
       </c>
     </row>
